--- a/file_export/bo_nhiem/quyetdinh_form.xlsx
+++ b/file_export/bo_nhiem/quyetdinh_form.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
@@ -16,16 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>ĐOÀN TNCS HỒ CHÍ MINH</t>
-  </si>
-  <si>
-    <t>BAN CHẤP HÀNH TRUNG ƯƠNG</t>
-  </si>
-  <si>
-    <t>***</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Số:</t>
   </si>
@@ -45,9 +36,6 @@
     <t>---------</t>
   </si>
   <si>
-    <t>BAN BÍ THƯ TRUNG ƯƠNG ĐOÀN TNCS HỒ CHÍ MINH</t>
-  </si>
-  <si>
     <t>- Căn cứ Quy chế hoạt động của Ban Chấp hành Trung ương Đoàn (khóa X); Quy chế tổ chức và hoạt động của cơ quan Trung ương Đoàn; Quy chế đánh giá nhận xét, bổ nhiệm cán bộ và giới thiệu cán bộ của cơ quan Trung ương Đoàn ứng cử;</t>
   </si>
   <si>
@@ -106,13 +94,19 @@
   </si>
   <si>
     <t>, Ban Tổ Chức, Văn phòng</t>
+  </si>
+  <si>
+    <t>BỘ GIAO THÔNG VẬN TẢI</t>
+  </si>
+  <si>
+    <t>TRƯỜNG ĐẠI HỌC CÔNG NGHỆ GIAO THÔNG VẬN TẢI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +156,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -183,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -210,6 +211,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -244,6 +248,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -549,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -567,72 +574,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="G4" s="10"/>
+    </row>
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="1" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D9" s="7"/>
@@ -640,145 +659,145 @@
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
+      <c r="A10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="12" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
+      <c r="A12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
+      <c r="A13" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="14" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
+      <c r="A14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D15" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="D15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C21" s="9"/>
       <c r="G21" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C22" s="8"/>
       <c r="F22" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F34" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
+      <c r="F34" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="E27:I27"/>
     <mergeCell ref="F34:H34"/>
@@ -789,10 +808,12 @@
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A12:I12"/>
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="B2:C2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="A7:I7"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
